--- a/326-RestructurationIG/ig/all-profiles.xlsx
+++ b/326-RestructurationIG/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T15:56:26+00:00</t>
+    <t>2025-07-25T16:15:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/326-RestructurationIG/ig/all-profiles.xlsx
+++ b/326-RestructurationIG/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T16:15:35+00:00</t>
+    <t>2025-07-28T13:19:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/326-RestructurationIG/ig/all-profiles.xlsx
+++ b/326-RestructurationIG/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-28T13:19:01+00:00</t>
+    <t>2025-07-29T13:51:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/326-RestructurationIG/ig/all-profiles.xlsx
+++ b/326-RestructurationIG/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T13:51:44+00:00</t>
+    <t>2025-07-29T16:27:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/326-RestructurationIG/ig/all-profiles.xlsx
+++ b/326-RestructurationIG/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T16:27:14+00:00</t>
+    <t>2025-07-29T16:40:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/326-RestructurationIG/ig/all-profiles.xlsx
+++ b/326-RestructurationIG/ig/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T16:40:25+00:00</t>
+    <t>2025-07-30T10:12:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
